--- a/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -14,63 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Rodada 20</t>
-  </si>
-  <si>
-    <t>Rodada 21</t>
-  </si>
-  <si>
-    <t>Rodada 22</t>
-  </si>
-  <si>
-    <t>Rodada 23</t>
-  </si>
-  <si>
-    <t>Rodada 24</t>
-  </si>
-  <si>
-    <t>Rodada 25</t>
-  </si>
-  <si>
-    <t>Rodada 26</t>
-  </si>
-  <si>
-    <t>Rodada 27</t>
-  </si>
-  <si>
-    <t>Rodada 28</t>
-  </si>
-  <si>
-    <t>Rodada 29</t>
-  </si>
-  <si>
-    <t>Rodada 30</t>
-  </si>
-  <si>
-    <t>Rodada 31</t>
-  </si>
-  <si>
-    <t>Rodada 32</t>
-  </si>
-  <si>
-    <t>Rodada 33</t>
-  </si>
-  <si>
-    <t>Rodada 34</t>
-  </si>
-  <si>
-    <t>Rodada 35</t>
-  </si>
-  <si>
-    <t>Rodada 36</t>
-  </si>
-  <si>
-    <t>Rodada 37</t>
-  </si>
-  <si>
-    <t>Rodada 38</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Rodada 1</t>
+  </si>
+  <si>
+    <t>Rodada 2</t>
+  </si>
+  <si>
+    <t>Rodada 3</t>
+  </si>
+  <si>
+    <t>Rodada 4</t>
+  </si>
+  <si>
+    <t>Rodada 5</t>
+  </si>
+  <si>
+    <t>Rodada 6</t>
+  </si>
+  <si>
+    <t>Rodada 7</t>
+  </si>
+  <si>
+    <t>Rodada 8</t>
+  </si>
+  <si>
+    <t>Rodada 9</t>
+  </si>
+  <si>
+    <t>Rodada 10</t>
+  </si>
+  <si>
+    <t>Rodada 11</t>
+  </si>
+  <si>
+    <t>Rodada 12</t>
+  </si>
+  <si>
+    <t>Rodada 13</t>
+  </si>
+  <si>
+    <t>Rodada 14</t>
+  </si>
+  <si>
+    <t>Rodada 15</t>
+  </si>
+  <si>
+    <t>Rodada 16</t>
+  </si>
+  <si>
+    <t>Rodada 17</t>
+  </si>
+  <si>
+    <t>Rodada 18</t>
+  </si>
+  <si>
+    <t>Rodada 19</t>
   </si>
   <si>
     <t>bugredasmissões</t>
@@ -88,9 +88,15 @@
     <t>FBC Colorado</t>
   </si>
   <si>
+    <t>GaúchoDaFronteira F.C</t>
+  </si>
+  <si>
     <t>GE Bebum</t>
   </si>
   <si>
+    <t>GrioTeam</t>
+  </si>
+  <si>
     <t>Grêmio_Campeão_LA_27</t>
   </si>
   <si>
@@ -107,6 +113,12 @@
   </si>
   <si>
     <t>NHU PORÃ SAF.</t>
+  </si>
+  <si>
+    <t>Pontaç0 F.C.</t>
+  </si>
+  <si>
+    <t>SC 100 Sono</t>
   </si>
   <si>
     <t>SC ÉoINTER!</t>
@@ -470,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1403,6 +1415,254 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -558,7 +558,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>51.5</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>38.16</v>
+        <v>42.06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -582,7 +582,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>58.17</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -598,7 +598,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>45.46</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>63.76</v>
+        <v>67.66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -622,7 +622,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>53.36</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -638,7 +638,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>39.66</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -654,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>54.36</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -670,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>16.4</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -678,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>52.96</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -694,7 +694,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>40.4</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="21" spans="1:2">

--- a/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -558,7 +558,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>56.69</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>62.76</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>42.06</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -582,7 +582,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>62.07</v>
+        <v>66.37</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -598,7 +598,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>49.36</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>67.66</v>
+        <v>71.95999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -614,7 +614,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>44.65</v>
+        <v>56.05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -622,7 +622,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>57.26</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -638,7 +638,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -646,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>43.96</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -654,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>58.26</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -670,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>18.49</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -678,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>56.86</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -694,7 +694,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>45.59</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="21" spans="1:2">

--- a/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -670,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>59.8</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
